--- a/GUI Training/GUI basic Training.xlsx
+++ b/GUI Training/GUI basic Training.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25108"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rkitsoftware-my.sharepoint.com/personal/brijesh_kamani_rkitsoftware_com/Documents/Documents/RKIT Training/Uploades/Github/brijeshkamani11/GUI Training/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_B3E9AE734724D576D2976B67FB73343363AD3909" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -39,9 +28,21 @@
     <t>HTML</t>
   </si>
   <si>
+    <t>Time in Hours</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
     <t>Basic of HTML</t>
   </si>
   <si>
+    <t>8 HOURS (1 WORKING DAY)</t>
+  </si>
+  <si>
+    <t>24-02-2022 (6:00 PM)</t>
+  </si>
+  <si>
     <t>1.1.1</t>
   </si>
   <si>
@@ -172,6 +173,9 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>25-02-2022(6:00PM)</t>
   </si>
   <si>
     <t>Basic of CSS</t>
@@ -233,6 +237,12 @@
     <t>Bootstrap</t>
   </si>
   <si>
+    <t>8 Hours (1 working day)</t>
+  </si>
+  <si>
+    <t>28-03-2022 (6:00 PM)</t>
+  </si>
+  <si>
     <t>Basics of bootstrap</t>
   </si>
   <si>
@@ -260,6 +270,12 @@
     <t>JavaScript</t>
   </si>
   <si>
+    <t>12 hours(1.5 working days)</t>
+  </si>
+  <si>
+    <t>02-03-2022(1:30 PM)</t>
+  </si>
+  <si>
     <t>Basics of JavaScript</t>
   </si>
   <si>
@@ -302,6 +318,12 @@
     <t>jQuery</t>
   </si>
   <si>
+    <t>20 hours(2.5 working days)</t>
+  </si>
+  <si>
+    <t>04-03-2022(6:00 PM)</t>
+  </si>
+  <si>
     <t>jQuery Introduction</t>
   </si>
   <si>
@@ -437,49 +459,16 @@
     <t>Basic dedmo preparation which cover all above points</t>
   </si>
   <si>
-    <t>8 HOURS (1 WORKING DAY)</t>
-  </si>
-  <si>
-    <t>8 Hours (1 working day)</t>
-  </si>
-  <si>
-    <t>20 hours(2.5 working days)</t>
-  </si>
-  <si>
-    <t>12 hours(1.5 working days)</t>
-  </si>
-  <si>
-    <t>Time in Hours</t>
-  </si>
-  <si>
-    <t>Deadline</t>
-  </si>
-  <si>
     <t>16 Hours ( 2 working days)</t>
   </si>
   <si>
+    <t>08-03-2022(6:00 PM)</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t>9 Working days</t>
-  </si>
-  <si>
-    <t>24-02-2022 (6:00 PM)</t>
-  </si>
-  <si>
-    <t>25-02-2022(6:00PM)</t>
-  </si>
-  <si>
-    <t>28-03-2022 (6:00 PM)</t>
-  </si>
-  <si>
-    <t>02-03-2022(1:30 PM)</t>
-  </si>
-  <si>
-    <t>04-03-2022(6:00 PM)</t>
-  </si>
-  <si>
-    <t>08-03-2022(6:00 PM)</t>
   </si>
   <si>
     <t>(24/02/2022 - 08/03/2022)</t>
@@ -488,7 +477,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -651,28 +640,28 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,19 +977,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="G76" sqref="G76:G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.5546875" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6">
@@ -1023,10 +1012,10 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="6" t="s">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6">
@@ -1036,56 +1025,56 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.2">
+      <c r="F3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="15.6">
       <c r="A7" s="3"/>
@@ -1094,128 +1083,128 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="3"/>
@@ -1224,63 +1213,63 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="3"/>
@@ -1289,52 +1278,52 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" ht="31.2">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="31.15">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="9"/>
@@ -1342,8 +1331,8 @@
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="18">
       <c r="A27" s="5">
@@ -1352,14 +1341,14 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>144</v>
+      <c r="F27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.6">
@@ -1369,99 +1358,99 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E28" s="13"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.2">
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="1:7" ht="46.8">
+        <v>55</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7" ht="46.9">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:7" ht="31.2">
+        <v>58</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" ht="31.15">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:7" ht="31.2">
+        <v>61</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" ht="31.15">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" ht="15.6">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7" ht="31.2">
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" ht="31.15">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" ht="15.6">
       <c r="A35" s="9"/>
@@ -1469,8 +1458,8 @@
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7" ht="18">
       <c r="A36" s="5">
@@ -1479,14 +1468,14 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>145</v>
+      <c r="F36" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.6">
@@ -1496,52 +1485,52 @@
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" ht="15.6">
       <c r="A38" s="9"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7" ht="15.6">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" ht="15.6">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" ht="15.6">
       <c r="A41" s="9"/>
@@ -1549,8 +1538,8 @@
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" ht="18">
       <c r="A42" s="5">
@@ -1559,14 +1548,14 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>146</v>
+      <c r="F42" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.6">
@@ -1576,89 +1565,89 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E43" s="13"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" ht="15.6">
       <c r="A44" s="9"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E44" s="10"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" ht="15.6">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="14" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" ht="15.6">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7" ht="15.6">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" ht="15.6">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7" ht="15.6">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E49" s="10"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" ht="15.6">
       <c r="A50" s="9"/>
@@ -1666,8 +1655,8 @@
       <c r="C50" s="14"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7" ht="18">
       <c r="A51" s="5">
@@ -1676,14 +1665,14 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E51" s="7"/>
-      <c r="F51" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>147</v>
+      <c r="F51" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.6">
@@ -1693,121 +1682,121 @@
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E52" s="13"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" ht="15.6">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="14" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" spans="1:7" ht="31.2">
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:7" ht="31.15">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="14" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7" ht="31.2">
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="1:7" ht="31.15">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="14" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-    </row>
-    <row r="56" spans="1:7" ht="31.2">
+        <v>107</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:7" ht="31.15">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="14" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
-    </row>
-    <row r="57" spans="1:7" ht="31.2">
+        <v>110</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7" ht="31.15">
       <c r="A57" s="3"/>
       <c r="B57" s="11">
         <v>5.2</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="8" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
+        <v>112</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7" ht="15.6">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="14" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="1:7" ht="15.6">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="14" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="1:7" ht="15.6">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="14" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" ht="15.6">
       <c r="A61" s="3"/>
@@ -1816,52 +1805,52 @@
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="8" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="62" spans="1:7" ht="15.6">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="14" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E62" s="10"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="19"/>
     </row>
     <row r="63" spans="1:7" ht="15.6">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="14" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E63" s="10"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-    </row>
-    <row r="64" spans="1:7" ht="31.2">
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="1:7" ht="31.15">
       <c r="A64" s="3"/>
       <c r="B64" s="11">
         <v>5.4</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="8" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
+        <v>125</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="1:7" ht="15.6">
       <c r="A65" s="3"/>
@@ -1870,11 +1859,11 @@
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="8" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E65" s="10"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:7" ht="15.6">
       <c r="A66" s="3"/>
@@ -1883,13 +1872,13 @@
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="8" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
+        <v>128</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
     </row>
     <row r="67" spans="1:7" ht="15.6">
       <c r="A67" s="12"/>
@@ -1898,93 +1887,93 @@
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
+        <v>130</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="19"/>
     </row>
     <row r="68" spans="1:7" ht="15.6">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E68" s="10"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="19"/>
     </row>
     <row r="69" spans="1:7" ht="15.6">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="14" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E69" s="10"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
     </row>
     <row r="70" spans="1:7" ht="15.6">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E70" s="10"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-    </row>
-    <row r="71" spans="1:7" ht="31.2">
+      <c r="F70" s="18"/>
+      <c r="G70" s="19"/>
+    </row>
+    <row r="71" spans="1:7" ht="31.15">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="14" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E71" s="10"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="22"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="19"/>
     </row>
     <row r="72" spans="1:7" ht="15.6">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="14" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="22"/>
+        <v>141</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" ht="15.6">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="14" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E73" s="14"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="19"/>
     </row>
     <row r="74" spans="1:7" ht="15.6">
       <c r="A74" s="9"/>
@@ -1992,8 +1981,8 @@
       <c r="C74" s="14"/>
       <c r="D74" s="10"/>
       <c r="E74" s="14"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="19"/>
     </row>
     <row r="75" spans="1:7" ht="36">
       <c r="A75" s="5">
@@ -2002,42 +1991,36 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="16" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G75" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18" customHeight="1">
+      <c r="D76" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="20"/>
+      <c r="F76" s="22" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="18" customHeight="1">
-      <c r="D76" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G76" s="19" t="s">
+      <c r="G76" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18" customHeight="1">
-      <c r="D77" s="20"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F3:F26"/>
-    <mergeCell ref="G3:G26"/>
-    <mergeCell ref="F36:F41"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="G27:G35"/>
-    <mergeCell ref="G36:G41"/>
     <mergeCell ref="F42:F50"/>
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="D76:D77"/>
@@ -2046,23 +2029,29 @@
     <mergeCell ref="F51:F74"/>
     <mergeCell ref="G76:G77"/>
     <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F3:F26"/>
+    <mergeCell ref="G3:G26"/>
+    <mergeCell ref="F36:F41"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="G27:G35"/>
+    <mergeCell ref="G36:G41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E22" r:id="rId2"/>
-    <hyperlink ref="E29" r:id="rId3"/>
-    <hyperlink ref="E30" r:id="rId4"/>
-    <hyperlink ref="E31" r:id="rId5"/>
-    <hyperlink ref="E32" r:id="rId6"/>
-    <hyperlink ref="E34" r:id="rId7"/>
-    <hyperlink ref="E37" r:id="rId8"/>
-    <hyperlink ref="E55" r:id="rId9"/>
-    <hyperlink ref="E56" r:id="rId10"/>
-    <hyperlink ref="E57" r:id="rId11"/>
-    <hyperlink ref="E64" r:id="rId12"/>
-    <hyperlink ref="E67" r:id="rId13"/>
-    <hyperlink ref="E72" r:id="rId14"/>
-    <hyperlink ref="E66" r:id="rId15"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E31" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E32" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E34" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E55" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E56" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E57" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E64" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E67" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E72" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E66" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
@@ -2070,12 +2059,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2251,49 +2237,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D008A29A-16EE-48F2-A304-97B47DA205E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100FB3B0-611D-4E68-B442-F0B4A7055530}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC1C9579-B951-4694-BC87-D51E6F4FD808}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="eb4ef62e-8707-4f9b-b790-def5935ae57b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC1C9579-B951-4694-BC87-D51E6F4FD808}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100FB3B0-611D-4E68-B442-F0B4A7055530}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="eb4ef62e-8707-4f9b-b790-def5935ae57b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D008A29A-16EE-48F2-A304-97B47DA205E3}"/>
 </file>